--- a/timetabledatabase/MechanicalEngineering.xlsx
+++ b/timetabledatabase/MechanicalEngineering.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timetabledatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9DF3E8-1E3F-4A6C-A23F-42578F7F8B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E39F99A6-7BCC-471C-9FE2-DE904F79C7FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FE" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="BE" sheetId="4" r:id="rId4"/>
     <sheet name="DT" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Subject</t>
   </si>
@@ -42,11 +41,23 @@
   <si>
     <t>End-Time</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>ExamTitle</t>
+  </si>
+  <si>
+    <t>NumSub</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,22 +402,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2ED629A-CA1C-4CD6-B989-083B5F92FF1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,22 +437,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C256F7-CA9F-4003-A97F-B2DE4CC74FE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,22 +472,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3886C40F-019A-45E6-AFD7-DE6F22EC0326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,22 +507,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7763A846-FA7F-4C3C-B15B-89419C91232D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,15 +542,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEC99E9-2DDA-487D-86AC-AC99DBA7C18B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>